--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sema3a-Nrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sema3a-Nrp2.xlsx
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Sema3a</t>
+  </si>
+  <si>
+    <t>Nrp2</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Sema3a</t>
-  </si>
-  <si>
-    <t>Nrp2</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.225746</v>
+        <v>1.206884</v>
       </c>
       <c r="H2">
-        <v>2.451492</v>
+        <v>2.413768</v>
       </c>
       <c r="I2">
-        <v>0.1045666790027646</v>
+        <v>0.3680467510043351</v>
       </c>
       <c r="J2">
-        <v>0.09912108042370671</v>
+        <v>0.3363881071054534</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>64.20135099999999</v>
+        <v>39.77812950000001</v>
       </c>
       <c r="N2">
-        <v>128.402702</v>
+        <v>79.55625900000001</v>
       </c>
       <c r="O2">
-        <v>0.4070144914449588</v>
+        <v>0.348003301252607</v>
       </c>
       <c r="P2">
-        <v>0.3181813759721767</v>
+        <v>0.2718884826683037</v>
       </c>
       <c r="Q2">
-        <v>78.69454918284599</v>
+        <v>48.00758804347801</v>
       </c>
       <c r="R2">
-        <v>314.778196731384</v>
+        <v>192.030352173912</v>
       </c>
       <c r="S2">
-        <v>0.04256015367639849</v>
+        <v>0.1280814843648049</v>
       </c>
       <c r="T2">
-        <v>0.03153848175706379</v>
+        <v>0.09146005202856455</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.225746</v>
+        <v>1.206884</v>
       </c>
       <c r="H3">
-        <v>2.451492</v>
+        <v>2.413768</v>
       </c>
       <c r="I3">
-        <v>0.1045666790027646</v>
+        <v>0.3680467510043351</v>
       </c>
       <c r="J3">
-        <v>0.09912108042370671</v>
+        <v>0.3363881071054534</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>47.27202199999999</v>
       </c>
       <c r="O3">
-        <v>0.09989612209201489</v>
+        <v>0.137854812176675</v>
       </c>
       <c r="P3">
-        <v>0.11713987922892</v>
+        <v>0.1615550868755992</v>
       </c>
       <c r="Q3">
-        <v>19.314497292804</v>
+        <v>19.01728233314933</v>
       </c>
       <c r="R3">
-        <v>115.886983756824</v>
+        <v>114.103693998896</v>
       </c>
       <c r="S3">
-        <v>0.0104458057324167</v>
+        <v>0.05073701573193808</v>
       </c>
       <c r="T3">
-        <v>0.01161103138987307</v>
+        <v>0.05434520986733987</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.225746</v>
+        <v>1.206884</v>
       </c>
       <c r="H4">
-        <v>2.451492</v>
+        <v>2.413768</v>
       </c>
       <c r="I4">
-        <v>0.1045666790027646</v>
+        <v>0.3680467510043351</v>
       </c>
       <c r="J4">
-        <v>0.09912108042370671</v>
+        <v>0.3363881071054534</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>24.57775566666666</v>
+        <v>12.91941666666667</v>
       </c>
       <c r="N4">
-        <v>73.733267</v>
+        <v>38.75825</v>
       </c>
       <c r="O4">
-        <v>0.1558145205313014</v>
+        <v>0.1130269247642213</v>
       </c>
       <c r="P4">
-        <v>0.1827107372630203</v>
+        <v>0.1324587394610747</v>
       </c>
       <c r="Q4">
-        <v>30.126085697394</v>
+        <v>15.59223726433334</v>
       </c>
       <c r="R4">
-        <v>180.756514184364</v>
+        <v>93.55342358600001</v>
       </c>
       <c r="S4">
-        <v>0.01629300695236627</v>
+        <v>0.04159919243548308</v>
       </c>
       <c r="T4">
-        <v>0.01811048568252258</v>
+        <v>0.04455754463688535</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.225746</v>
+        <v>1.206884</v>
       </c>
       <c r="H5">
-        <v>2.451492</v>
+        <v>2.413768</v>
       </c>
       <c r="I5">
-        <v>0.1045666790027646</v>
+        <v>0.3680467510043351</v>
       </c>
       <c r="J5">
-        <v>0.09912108042370671</v>
+        <v>0.3363881071054534</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.4585215</v>
+        <v>10.527315</v>
       </c>
       <c r="N5">
-        <v>10.917043</v>
+        <v>21.05463</v>
       </c>
       <c r="O5">
-        <v>0.03460514954527786</v>
+        <v>0.09209936262402908</v>
       </c>
       <c r="P5">
-        <v>0.02705238837799083</v>
+        <v>0.07195551268747499</v>
       </c>
       <c r="Q5">
-        <v>6.690760894538999</v>
+        <v>12.70524803646</v>
       </c>
       <c r="R5">
-        <v>26.763043578156</v>
+        <v>50.82099214584</v>
       </c>
       <c r="S5">
-        <v>0.003618545564343735</v>
+        <v>0.033896871183344</v>
       </c>
       <c r="T5">
-        <v>0.002681461964068177</v>
+        <v>0.02420497870874215</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.225746</v>
+        <v>1.206884</v>
       </c>
       <c r="H6">
-        <v>2.451492</v>
+        <v>2.413768</v>
       </c>
       <c r="I6">
-        <v>0.1045666790027646</v>
+        <v>0.3680467510043351</v>
       </c>
       <c r="J6">
-        <v>0.09912108042370671</v>
+        <v>0.3363881071054534</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>33.41628466666666</v>
+        <v>8.217959</v>
       </c>
       <c r="N6">
-        <v>100.248854</v>
+        <v>24.653877</v>
       </c>
       <c r="O6">
-        <v>0.2118477555025798</v>
+        <v>0.07189570996691971</v>
       </c>
       <c r="P6">
-        <v>0.2484162545532246</v>
+        <v>0.0842561640489027</v>
       </c>
       <c r="Q6">
-        <v>40.959877265028</v>
+        <v>9.918123229756</v>
       </c>
       <c r="R6">
-        <v>245.759263590168</v>
+        <v>59.50873937853601</v>
       </c>
       <c r="S6">
-        <v>0.02215221624709442</v>
+        <v>0.0264609824644748</v>
       </c>
       <c r="T6">
-        <v>0.02462328754612618</v>
+        <v>0.02834277153637693</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.225746</v>
+        <v>1.206884</v>
       </c>
       <c r="H7">
-        <v>2.451492</v>
+        <v>2.413768</v>
       </c>
       <c r="I7">
-        <v>0.1045666790027646</v>
+        <v>0.3680467510043351</v>
       </c>
       <c r="J7">
-        <v>0.09912108042370671</v>
+        <v>0.3363881071054534</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.32600733333333</v>
+        <v>27.10372466666666</v>
       </c>
       <c r="N7">
-        <v>42.978022</v>
+        <v>81.31117399999999</v>
       </c>
       <c r="O7">
-        <v>0.09082196088386704</v>
+        <v>0.2371198892155478</v>
       </c>
       <c r="P7">
-        <v>0.1064993646046676</v>
+        <v>0.2778860142586446</v>
       </c>
       <c r="Q7">
-        <v>17.560046184804</v>
+        <v>32.71105164060533</v>
       </c>
       <c r="R7">
-        <v>105.360277108824</v>
+        <v>196.266309843632</v>
       </c>
       <c r="S7">
-        <v>0.009496950830144967</v>
+        <v>0.08727120482429027</v>
       </c>
       <c r="T7">
-        <v>0.01055633208405292</v>
+        <v>0.09347755032754448</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1.850885</v>
       </c>
       <c r="I8">
-        <v>0.05263213794321497</v>
+        <v>0.1881462815903486</v>
       </c>
       <c r="J8">
-        <v>0.07483676101738548</v>
+        <v>0.257943473283214</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>64.20135099999999</v>
+        <v>39.77812950000001</v>
       </c>
       <c r="N8">
-        <v>128.402702</v>
+        <v>79.55625900000001</v>
       </c>
       <c r="O8">
-        <v>0.4070144914449588</v>
+        <v>0.348003301252607</v>
       </c>
       <c r="P8">
-        <v>0.3181813759721767</v>
+        <v>0.2718884826683037</v>
       </c>
       <c r="Q8">
-        <v>39.60977251521166</v>
+        <v>24.5415810732025</v>
       </c>
       <c r="R8">
-        <v>237.6586350912699</v>
+        <v>147.249486439215</v>
       </c>
       <c r="S8">
-        <v>0.02142204285861856</v>
+        <v>0.0654755271118439</v>
       </c>
       <c r="T8">
-        <v>0.02381166359381267</v>
+        <v>0.07013185956516521</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1.850885</v>
       </c>
       <c r="I9">
-        <v>0.05263213794321497</v>
+        <v>0.1881462815903486</v>
       </c>
       <c r="J9">
-        <v>0.07483676101738548</v>
+        <v>0.257943473283214</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>47.27202199999999</v>
       </c>
       <c r="O9">
-        <v>0.09989612209201489</v>
+        <v>0.137854812176675</v>
       </c>
       <c r="P9">
-        <v>0.11713987922892</v>
+        <v>0.1615550868755992</v>
       </c>
       <c r="Q9">
         <v>9.721675159941109</v>
@@ -1013,10 +1013,10 @@
         <v>87.49507643946998</v>
       </c>
       <c r="S9">
-        <v>0.005257746477939172</v>
+        <v>0.0259368703103773</v>
       </c>
       <c r="T9">
-        <v>0.008766369147460085</v>
+        <v>0.04167208023526343</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>1.850885</v>
       </c>
       <c r="I10">
-        <v>0.05263213794321497</v>
+        <v>0.1881462815903486</v>
       </c>
       <c r="J10">
-        <v>0.07483676101738548</v>
+        <v>0.257943473283214</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.57775566666666</v>
+        <v>12.91941666666667</v>
       </c>
       <c r="N10">
-        <v>73.733267</v>
+        <v>38.75825</v>
       </c>
       <c r="O10">
-        <v>0.1558145205313014</v>
+        <v>0.1130269247642213</v>
       </c>
       <c r="P10">
-        <v>0.1827107372630203</v>
+        <v>0.1324587394610747</v>
       </c>
       <c r="Q10">
-        <v>15.16353309903278</v>
+        <v>7.970784839027779</v>
       </c>
       <c r="R10">
-        <v>136.471797891295</v>
+        <v>71.73706355125</v>
       </c>
       <c r="S10">
-        <v>0.008200851338159358</v>
+        <v>0.02126559561398033</v>
       </c>
       <c r="T10">
-        <v>0.01367347977986296</v>
+        <v>0.03416686732330594</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>1.850885</v>
       </c>
       <c r="I11">
-        <v>0.05263213794321497</v>
+        <v>0.1881462815903486</v>
       </c>
       <c r="J11">
-        <v>0.07483676101738548</v>
+        <v>0.257943473283214</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.4585215</v>
+        <v>10.527315</v>
       </c>
       <c r="N11">
-        <v>10.917043</v>
+        <v>21.05463</v>
       </c>
       <c r="O11">
-        <v>0.03460514954527786</v>
+        <v>0.09209936262402908</v>
       </c>
       <c r="P11">
-        <v>0.02705238837799083</v>
+        <v>0.07195551268747499</v>
       </c>
       <c r="Q11">
-        <v>3.367698522175833</v>
+        <v>6.494949807925</v>
       </c>
       <c r="R11">
-        <v>20.206191133055</v>
+        <v>38.96969884755</v>
       </c>
       <c r="S11">
-        <v>0.001821343004412647</v>
+        <v>0.0173281526145522</v>
       </c>
       <c r="T11">
-        <v>0.002024513123993196</v>
+        <v>0.01856045486448167</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>1.850885</v>
       </c>
       <c r="I12">
-        <v>0.05263213794321497</v>
+        <v>0.1881462815903486</v>
       </c>
       <c r="J12">
-        <v>0.07483676101738548</v>
+        <v>0.257943473283214</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.41628466666666</v>
+        <v>8.217959</v>
       </c>
       <c r="N12">
-        <v>100.248854</v>
+        <v>24.653877</v>
       </c>
       <c r="O12">
-        <v>0.2118477555025798</v>
+        <v>0.07189570996691971</v>
       </c>
       <c r="P12">
-        <v>0.2484162545532246</v>
+        <v>0.0842561640489027</v>
       </c>
       <c r="Q12">
-        <v>20.61656668175444</v>
+        <v>5.070165681238334</v>
       </c>
       <c r="R12">
-        <v>185.54910013579</v>
+        <v>45.631491131145</v>
       </c>
       <c r="S12">
-        <v>0.01115000029057226</v>
+        <v>0.01352691049257411</v>
       </c>
       <c r="T12">
-        <v>0.01859066787483367</v>
+        <v>0.02173332760029423</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>1.850885</v>
       </c>
       <c r="I13">
-        <v>0.05263213794321497</v>
+        <v>0.1881462815903486</v>
       </c>
       <c r="J13">
-        <v>0.07483676101738548</v>
+        <v>0.257943473283214</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>14.32600733333333</v>
+        <v>27.10372466666666</v>
       </c>
       <c r="N13">
-        <v>42.978022</v>
+        <v>81.31117399999999</v>
       </c>
       <c r="O13">
-        <v>0.09082196088386704</v>
+        <v>0.2371198892155478</v>
       </c>
       <c r="P13">
-        <v>0.1064993646046676</v>
+        <v>0.2778860142586446</v>
       </c>
       <c r="Q13">
-        <v>8.838597361052221</v>
+        <v>16.72195914322111</v>
       </c>
       <c r="R13">
-        <v>79.54737624946999</v>
+        <v>150.49763228899</v>
       </c>
       <c r="S13">
-        <v>0.004780153973512964</v>
+        <v>0.04461322544702072</v>
       </c>
       <c r="T13">
-        <v>0.007970067497422911</v>
+        <v>0.07167888369470353</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>9.208398499999999</v>
+        <v>0.0002643333333333333</v>
       </c>
       <c r="H14">
-        <v>18.416797</v>
+        <v>0.000793</v>
       </c>
       <c r="I14">
-        <v>0.7855556127281174</v>
+        <v>8.061008722916141E-05</v>
       </c>
       <c r="J14">
-        <v>0.744645634815076</v>
+        <v>0.0001105142536211535</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>64.20135099999999</v>
+        <v>39.77812950000001</v>
       </c>
       <c r="N14">
-        <v>128.402702</v>
+        <v>79.55625900000001</v>
       </c>
       <c r="O14">
-        <v>0.4070144914449588</v>
+        <v>0.348003301252607</v>
       </c>
       <c r="P14">
-        <v>0.3181813759721767</v>
+        <v>0.2718884826683037</v>
       </c>
       <c r="Q14">
-        <v>591.1916242463734</v>
+        <v>0.0105146855645</v>
       </c>
       <c r="R14">
-        <v>2364.766496985494</v>
+        <v>0.063088113387</v>
       </c>
       <c r="S14">
-        <v>0.3197325182162677</v>
+        <v>2.805257647000879E-05</v>
       </c>
       <c r="T14">
-        <v>0.2369323726971359</v>
+        <v>3.004755273027552E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>9.208398499999999</v>
+        <v>0.0002643333333333333</v>
       </c>
       <c r="H15">
-        <v>18.416797</v>
+        <v>0.000793</v>
       </c>
       <c r="I15">
-        <v>0.7855556127281174</v>
+        <v>8.061008722916141E-05</v>
       </c>
       <c r="J15">
-        <v>0.744645634815076</v>
+        <v>0.0001105142536211535</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>47.27202199999999</v>
       </c>
       <c r="O15">
-        <v>0.09989612209201489</v>
+        <v>0.137854812176675</v>
       </c>
       <c r="P15">
-        <v>0.11713987922892</v>
+        <v>0.1615550868755992</v>
       </c>
       <c r="Q15">
-        <v>145.0998721589223</v>
+        <v>0.004165190382888888</v>
       </c>
       <c r="R15">
-        <v>870.5992329535338</v>
+        <v>0.03748671344599999</v>
       </c>
       <c r="S15">
-        <v>0.07847395939915558</v>
+        <v>1.111248843452143E-05</v>
       </c>
       <c r="T15">
-        <v>0.08722769973058048</v>
+        <v>1.785413984475746E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,25 +1402,25 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>9.208398499999999</v>
+        <v>0.0002643333333333333</v>
       </c>
       <c r="H16">
-        <v>18.416797</v>
+        <v>0.000793</v>
       </c>
       <c r="I16">
-        <v>0.7855556127281174</v>
+        <v>8.061008722916141E-05</v>
       </c>
       <c r="J16">
-        <v>0.744645634815076</v>
+        <v>0.0001105142536211535</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>24.57775566666666</v>
+        <v>12.91941666666667</v>
       </c>
       <c r="N16">
-        <v>73.733267</v>
+        <v>38.75825</v>
       </c>
       <c r="O16">
-        <v>0.1558145205313014</v>
+        <v>0.1130269247642213</v>
       </c>
       <c r="P16">
-        <v>0.1827107372630203</v>
+        <v>0.1324587394610747</v>
       </c>
       <c r="Q16">
-        <v>226.3217684142998</v>
+        <v>0.003415032472222223</v>
       </c>
       <c r="R16">
-        <v>1357.930610485799</v>
+        <v>0.03073529225</v>
       </c>
       <c r="S16">
-        <v>0.1224009711479043</v>
+        <v>9.111110264487744E-06</v>
       </c>
       <c r="T16">
-        <v>0.1360547529367523</v>
+        <v>1.463857872713951E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,25 +1464,25 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>9.208398499999999</v>
+        <v>0.0002643333333333333</v>
       </c>
       <c r="H17">
-        <v>18.416797</v>
+        <v>0.000793</v>
       </c>
       <c r="I17">
-        <v>0.7855556127281174</v>
+        <v>8.061008722916141E-05</v>
       </c>
       <c r="J17">
-        <v>0.744645634815076</v>
+        <v>0.0001105142536211535</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.4585215</v>
+        <v>10.527315</v>
       </c>
       <c r="N17">
-        <v>10.917043</v>
+        <v>21.05463</v>
       </c>
       <c r="O17">
-        <v>0.03460514954527786</v>
+        <v>0.09209936262402908</v>
       </c>
       <c r="P17">
-        <v>0.02705238837799083</v>
+        <v>0.07195551268747499</v>
       </c>
       <c r="Q17">
-        <v>50.26424119281774</v>
+        <v>0.002782720265</v>
       </c>
       <c r="R17">
-        <v>201.056964771271</v>
+        <v>0.01669632159</v>
       </c>
       <c r="S17">
-        <v>0.02718426945458888</v>
+        <v>7.424137654873152E-06</v>
       </c>
       <c r="T17">
-        <v>0.02014444291699296</v>
+        <v>7.952109778583741E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,25 +1526,25 @@
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>9.208398499999999</v>
+        <v>0.0002643333333333333</v>
       </c>
       <c r="H18">
-        <v>18.416797</v>
+        <v>0.000793</v>
       </c>
       <c r="I18">
-        <v>0.7855556127281174</v>
+        <v>8.061008722916141E-05</v>
       </c>
       <c r="J18">
-        <v>0.744645634815076</v>
+        <v>0.0001105142536211535</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>33.41628466666666</v>
+        <v>8.217959</v>
       </c>
       <c r="N18">
-        <v>100.248854</v>
+        <v>24.653877</v>
       </c>
       <c r="O18">
-        <v>0.2118477555025798</v>
+        <v>0.07189570996691971</v>
       </c>
       <c r="P18">
-        <v>0.2484162545532246</v>
+        <v>0.0842561640489027</v>
       </c>
       <c r="Q18">
-        <v>307.7104656001063</v>
+        <v>0.002172280495666667</v>
       </c>
       <c r="R18">
-        <v>1846.262793600638</v>
+        <v>0.019550524461</v>
       </c>
       <c r="S18">
-        <v>0.1664181933789055</v>
+        <v>5.795519451835888E-06</v>
       </c>
       <c r="T18">
-        <v>0.1849820795701695</v>
+        <v>9.311507082845949E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>27</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>9.208398499999999</v>
+        <v>0.0002643333333333333</v>
       </c>
       <c r="H19">
-        <v>18.416797</v>
+        <v>0.000793</v>
       </c>
       <c r="I19">
-        <v>0.7855556127281174</v>
+        <v>8.061008722916141E-05</v>
       </c>
       <c r="J19">
-        <v>0.744645634815076</v>
+        <v>0.0001105142536211535</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>14.32600733333333</v>
+        <v>27.10372466666666</v>
       </c>
       <c r="N19">
-        <v>42.978022</v>
+        <v>81.31117399999999</v>
       </c>
       <c r="O19">
-        <v>0.09082196088386704</v>
+        <v>0.2371198892155478</v>
       </c>
       <c r="P19">
-        <v>0.1064993646046676</v>
+        <v>0.2778860142586446</v>
       </c>
       <c r="Q19">
-        <v>131.9195844392556</v>
+        <v>0.007164417886888888</v>
       </c>
       <c r="R19">
-        <v>791.5175066355339</v>
+        <v>0.06447976098199999</v>
       </c>
       <c r="S19">
-        <v>0.07134570113129528</v>
+        <v>1.91142549534344E-05</v>
       </c>
       <c r="T19">
-        <v>0.07930428696344494</v>
+        <v>3.071036545755134E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.6710410000000001</v>
+        <v>1.4550495</v>
       </c>
       <c r="H20">
-        <v>2.013123</v>
+        <v>2.910099</v>
       </c>
       <c r="I20">
-        <v>0.0572455703259029</v>
+        <v>0.4437263573180871</v>
       </c>
       <c r="J20">
-        <v>0.08139652374383181</v>
+        <v>0.4055579053577115</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>64.20135099999999</v>
+        <v>39.77812950000001</v>
       </c>
       <c r="N20">
-        <v>128.402702</v>
+        <v>79.55625900000001</v>
       </c>
       <c r="O20">
-        <v>0.4070144914449588</v>
+        <v>0.348003301252607</v>
       </c>
       <c r="P20">
-        <v>0.3181813759721767</v>
+        <v>0.2718884826683037</v>
       </c>
       <c r="Q20">
-        <v>43.081738776391</v>
+        <v>57.87914743991026</v>
       </c>
       <c r="R20">
-        <v>258.490432658346</v>
+        <v>231.516589759641</v>
       </c>
       <c r="S20">
-        <v>0.02329977669367399</v>
+        <v>0.1544182371994882</v>
       </c>
       <c r="T20">
-        <v>0.02589885792416435</v>
+        <v>0.1102665235218437</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.6710410000000001</v>
+        <v>1.4550495</v>
       </c>
       <c r="H21">
-        <v>2.013123</v>
+        <v>2.910099</v>
       </c>
       <c r="I21">
-        <v>0.0572455703259029</v>
+        <v>0.4437263573180871</v>
       </c>
       <c r="J21">
-        <v>0.08139652374383181</v>
+        <v>0.4055579053577115</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>47.27202199999999</v>
       </c>
       <c r="O21">
-        <v>0.09989612209201489</v>
+        <v>0.137854812176675</v>
       </c>
       <c r="P21">
-        <v>0.11713987922892</v>
+        <v>0.1615550868755992</v>
       </c>
       <c r="Q21">
-        <v>10.57382163830067</v>
+        <v>22.92771065836299</v>
       </c>
       <c r="R21">
-        <v>95.164394744706</v>
+        <v>137.566263950178</v>
       </c>
       <c r="S21">
-        <v>0.00571861048250342</v>
+        <v>0.06116981364592507</v>
       </c>
       <c r="T21">
-        <v>0.009534778961006379</v>
+        <v>0.0655199426331511</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,25 +1774,25 @@
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.6710410000000001</v>
+        <v>1.4550495</v>
       </c>
       <c r="H22">
-        <v>2.013123</v>
+        <v>2.910099</v>
       </c>
       <c r="I22">
-        <v>0.0572455703259029</v>
+        <v>0.4437263573180871</v>
       </c>
       <c r="J22">
-        <v>0.08139652374383181</v>
+        <v>0.4055579053577115</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>24.57775566666666</v>
+        <v>12.91941666666667</v>
       </c>
       <c r="N22">
-        <v>73.733267</v>
+        <v>38.75825</v>
       </c>
       <c r="O22">
-        <v>0.1558145205313014</v>
+        <v>0.1130269247642213</v>
       </c>
       <c r="P22">
-        <v>0.1827107372630203</v>
+        <v>0.1324587394610747</v>
       </c>
       <c r="Q22">
-        <v>16.49268174031567</v>
+        <v>18.798390761125</v>
       </c>
       <c r="R22">
-        <v>148.434135662841</v>
+        <v>112.79034456675</v>
       </c>
       <c r="S22">
-        <v>0.008919691092871457</v>
+        <v>0.05015302560449342</v>
       </c>
       <c r="T22">
-        <v>0.01487201886388245</v>
+        <v>0.0537196889221563</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,25 +1836,25 @@
         <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.6710410000000001</v>
+        <v>1.4550495</v>
       </c>
       <c r="H23">
-        <v>2.013123</v>
+        <v>2.910099</v>
       </c>
       <c r="I23">
-        <v>0.0572455703259029</v>
+        <v>0.4437263573180871</v>
       </c>
       <c r="J23">
-        <v>0.08139652374383181</v>
+        <v>0.4055579053577115</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>5.4585215</v>
+        <v>10.527315</v>
       </c>
       <c r="N23">
-        <v>10.917043</v>
+        <v>21.05463</v>
       </c>
       <c r="O23">
-        <v>0.03460514954527786</v>
+        <v>0.09209936262402908</v>
       </c>
       <c r="P23">
-        <v>0.02705238837799083</v>
+        <v>0.07195551268747499</v>
       </c>
       <c r="Q23">
-        <v>3.6628917258815</v>
+        <v>15.3177644270925</v>
       </c>
       <c r="R23">
-        <v>21.977350355289</v>
+        <v>61.27105770836999</v>
       </c>
       <c r="S23">
-        <v>0.001980991521932591</v>
+        <v>0.04086691468847801</v>
       </c>
       <c r="T23">
-        <v>0.00220197037293649</v>
+        <v>0.02918212700447259</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,25 +1898,25 @@
         <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.6710410000000001</v>
+        <v>1.4550495</v>
       </c>
       <c r="H24">
-        <v>2.013123</v>
+        <v>2.910099</v>
       </c>
       <c r="I24">
-        <v>0.0572455703259029</v>
+        <v>0.4437263573180871</v>
       </c>
       <c r="J24">
-        <v>0.08139652374383181</v>
+        <v>0.4055579053577115</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>33.41628466666666</v>
+        <v>8.217959</v>
       </c>
       <c r="N24">
-        <v>100.248854</v>
+        <v>24.653877</v>
       </c>
       <c r="O24">
-        <v>0.2118477555025798</v>
+        <v>0.07189570996691971</v>
       </c>
       <c r="P24">
-        <v>0.2484162545532246</v>
+        <v>0.0842561640489027</v>
       </c>
       <c r="Q24">
-        <v>22.42369707900467</v>
+        <v>11.9575371339705</v>
       </c>
       <c r="R24">
-        <v>201.813273711042</v>
+        <v>71.745222803823</v>
       </c>
       <c r="S24">
-        <v>0.01212734558600762</v>
+        <v>0.03190202149041897</v>
       </c>
       <c r="T24">
-        <v>0.02022021956209532</v>
+        <v>0.03417075340514869</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>27</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.6710410000000001</v>
+        <v>1.4550495</v>
       </c>
       <c r="H25">
-        <v>2.013123</v>
+        <v>2.910099</v>
       </c>
       <c r="I25">
-        <v>0.0572455703259029</v>
+        <v>0.4437263573180871</v>
       </c>
       <c r="J25">
-        <v>0.08139652374383181</v>
+        <v>0.4055579053577115</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>14.32600733333333</v>
+        <v>27.10372466666666</v>
       </c>
       <c r="N25">
-        <v>42.978022</v>
+        <v>81.31117399999999</v>
       </c>
       <c r="O25">
-        <v>0.09082196088386704</v>
+        <v>0.2371198892155478</v>
       </c>
       <c r="P25">
-        <v>0.1064993646046676</v>
+        <v>0.2778860142586446</v>
       </c>
       <c r="Q25">
-        <v>9.613338286967334</v>
+        <v>39.437261024371</v>
       </c>
       <c r="R25">
-        <v>86.52004458270601</v>
+        <v>236.623566146226</v>
       </c>
       <c r="S25">
-        <v>0.005199154948913813</v>
+        <v>0.1052163446892834</v>
       </c>
       <c r="T25">
-        <v>0.008668678059746826</v>
+        <v>0.1126988698709391</v>
       </c>
     </row>
   </sheetData>
